--- a/paginas/llamado_formacion_inicial/aspirantes_listos_formacion.xlsx
+++ b/paginas/llamado_formacion_inicial/aspirantes_listos_formacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>FOLIO DE REGISTRO</t>
   </si>
@@ -50,64 +50,127 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>NI20200002</t>
+    <t>NI20200004</t>
   </si>
   <si>
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>SANDRA RODRIGUEZ VEGA</t>
-  </si>
-  <si>
-    <t>1993-03-06</t>
-  </si>
-  <si>
-    <t>zandriith@gmail.com</t>
+    <t>GABRIEL PEREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1993-03-08</t>
+  </si>
+  <si>
+    <t>gabo_phhotmail.com</t>
   </si>
   <si>
     <t>INTERESADO</t>
   </si>
   <si>
-    <t>NI20200006</t>
-  </si>
-  <si>
-    <t>ANGEL RESENDIZ AGUILA</t>
-  </si>
-  <si>
-    <t>1993-03-10</t>
-  </si>
-  <si>
-    <t>angelaguila625@gmail.com</t>
-  </si>
-  <si>
-    <t>NO INTERESADO</t>
-  </si>
-  <si>
-    <t>NI20200003</t>
-  </si>
-  <si>
-    <t>ANA KAREN SANDOVAL  RAMOS</t>
-  </si>
-  <si>
-    <t>1993-03-07</t>
-  </si>
-  <si>
-    <t>anakarensandoval17@gmail.com</t>
+    <t>NI20200005</t>
+  </si>
+  <si>
+    <t>EDUARDO RAMOS GUZMAN</t>
+  </si>
+  <si>
+    <t>1993-03-09</t>
+  </si>
+  <si>
+    <t>eduardoramosguzmans2000@gmail.com</t>
+  </si>
+  <si>
+    <t>NI20200007</t>
+  </si>
+  <si>
+    <t>VICTOR CAMPOS  MAURNO</t>
+  </si>
+  <si>
+    <t>1993-03-11</t>
+  </si>
+  <si>
+    <t>victormaurno@gmail.com</t>
+  </si>
+  <si>
+    <t>NI20200008</t>
+  </si>
+  <si>
+    <t>ANDRES ABIMAEL TORRES SANCHEZ</t>
+  </si>
+  <si>
+    <t>1993-03-12</t>
+  </si>
+  <si>
+    <t>blue-andres@hotmail.com</t>
+  </si>
+  <si>
+    <t>NI20200010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERARDO SALGADO  FLORES </t>
+  </si>
+  <si>
+    <t>1993-03-14</t>
+  </si>
+  <si>
+    <t>gerardo.salgadofl.utp@gmail.com</t>
+  </si>
+  <si>
+    <t>NI20200011</t>
+  </si>
+  <si>
+    <t>GABRIELA SANCHEZ REYES</t>
+  </si>
+  <si>
+    <t>1993-03-15</t>
+  </si>
+  <si>
+    <t>gabrielitasnchezgarc@gmail.com</t>
+  </si>
+  <si>
+    <t>NI20200012</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>JESUS ALEJANDRO  VARA SORIANO</t>
+  </si>
+  <si>
+    <t>1993-03-16</t>
+  </si>
+  <si>
+    <t>yorbink_97@hotmail.com</t>
+  </si>
+  <si>
+    <t>NI20200016</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE LOPEZ ZEPEDA</t>
+  </si>
+  <si>
+    <t>1993-03-20</t>
+  </si>
+  <si>
+    <t>lupitamanzanita88@hotmail.com</t>
   </si>
   <si>
     <t>NI20210348</t>
   </si>
   <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>CESAR SALINAS RAMIREZ</t>
-  </si>
-  <si>
-    <t>1993-12-11</t>
-  </si>
-  <si>
-    <t>usr@mail.com</t>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>HERNÃNDEZ MARÃA MARTÃNEZ</t>
+  </si>
+  <si>
+    <t>1994-08-03</t>
+  </si>
+  <si>
+    <t>maria@hotmail.com</t>
+  </si>
+  <si>
+    <t>si esta interesada</t>
   </si>
 </sst>
 </file>
@@ -446,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,13 +587,13 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>2225134318</v>
+        <v>2229203842</v>
       </c>
       <c r="G2">
-        <v>3928068</v>
+        <v>2227288993</v>
       </c>
       <c r="H2">
-        <v>2221079774</v>
+        <v>2227250897</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -554,50 +617,52 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>2227118986</v>
+        <v>2211095148</v>
       </c>
       <c r="G3">
-        <v>222803308</v>
+        <v>2224554251</v>
       </c>
       <c r="H3">
-        <v>2221834549</v>
+        <v>2224229750</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>2222094474</v>
+      </c>
+      <c r="G4">
+        <v>2224364880</v>
+      </c>
+      <c r="H4">
+        <v>2222583510</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>2221518001</v>
-      </c>
-      <c r="G4">
-        <v>2713368</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -606,36 +671,187 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>2211963482</v>
+      </c>
+      <c r="G5">
+        <v>2221772619</v>
+      </c>
+      <c r="H5">
+        <v>2411359903</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>1334234234</v>
-      </c>
-      <c r="G5">
-        <v>2342342342</v>
-      </c>
-      <c r="H5">
-        <v>2342342342</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2224246127</v>
+      </c>
+      <c r="G6">
+        <v>2211007394</v>
+      </c>
+      <c r="H6">
+        <v>2227182068</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>2227177527</v>
+      </c>
+      <c r="G7">
+        <v>2228449149</v>
+      </c>
+      <c r="H7">
+        <v>2228543843</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>2211361020</v>
+      </c>
+      <c r="G8">
+        <v>2225318582</v>
+      </c>
+      <c r="H8">
+        <v>2225493197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2226724297</v>
+      </c>
+      <c r="G9">
+        <v>2227484834</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>9865321472</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="K5"/>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
